--- a/ЭУ АСОИУ/Новое/ЛР2/Пример_ЛР2_Proteus85/мои_расчёты_ЛР2.xlsx
+++ b/ЭУ АСОИУ/Новое/ЛР2/Пример_ЛР2_Proteus85/мои_расчёты_ЛР2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aalex\OneDrive\Рабочий стол\Учёба\8_sem\ЭУ АСОИУ\Новое\ЛР2\Пример_ЛР2_Proteus85\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30354CB9-B5E8-45FE-8916-37E013F7057F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DB5DDBF-D060-49B0-AFDA-6B31C83BE72F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2493,10 +2493,10 @@
       <xdr:rowOff>104773</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>588432</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>84666</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2789,8 +2789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="U32" sqref="U32"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="U36" sqref="U36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
